--- a/Jul 2019 to Aug 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jul 2019 to Aug 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4F645375-D948-432D-9A04-1A2F3CCE7604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B977183A-C68B-4D7C-BC02-046E2F2FCFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jul 2019 to Aug 2019" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="331">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>File 1 Value</t>
-  </si>
-  <si>
-    <t>File 2 Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="330">
   <si>
     <t>Comment</t>
   </si>
@@ -1016,12 +1004,21 @@
   </si>
   <si>
     <t>Network moved within Service from Base to Add-On Package</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Old Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1862,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,1282 +1873,1222 @@
     <col min="2" max="2" width="29.765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.69140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" t="s">
-        <v>152</v>
-      </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" t="s">
-        <v>152</v>
-      </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
       <c r="E30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
       <c r="E31" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
       <c r="E40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
       <c r="E41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
       <c r="E44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
       <c r="E45" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
       <c r="E47" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -3159,2889 +3096,2838 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E100" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
-      </c>
-      <c r="D104" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="E105" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="C109" t="s">
-        <v>32</v>
-      </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
-      </c>
-      <c r="D115" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="C119" t="s">
-        <v>72</v>
-      </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="E119" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" t="s">
-        <v>32</v>
-      </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="E121" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
-      </c>
-      <c r="D123" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
-      </c>
-      <c r="D125" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E126" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="E127" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>55</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="E128" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="E130" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131" t="s">
-        <v>66</v>
-      </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="E131" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
-      <c r="C132" t="s">
-        <v>55</v>
-      </c>
       <c r="D132" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="E132" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
-      </c>
-      <c r="D133" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="E134" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
-      <c r="C135" t="s">
-        <v>214</v>
-      </c>
       <c r="D135" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
-      </c>
-      <c r="D137" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="E137" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s">
-        <v>95</v>
-      </c>
-      <c r="C139" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="E139" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>199</v>
       </c>
       <c r="E140" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="E142" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" t="s">
-        <v>196</v>
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>214</v>
       </c>
       <c r="E144" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="E145" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>217</v>
       </c>
       <c r="E146" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>219</v>
       </c>
       <c r="E147" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>223</v>
       </c>
       <c r="E148" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>225</v>
       </c>
       <c r="E149" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="E150" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>227</v>
       </c>
       <c r="E151" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>235</v>
       </c>
       <c r="E152" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>239</v>
       </c>
       <c r="E153" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="E154" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>240</v>
       </c>
       <c r="E155" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>246</v>
       </c>
       <c r="E156" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="E157" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="E158" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>253</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" t="s">
-        <v>241</v>
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>254</v>
       </c>
       <c r="E160" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
-      <c r="D161" t="s">
-        <v>7</v>
+      <c r="C161" t="s">
+        <v>255</v>
       </c>
       <c r="E161" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
-      <c r="D162" t="s">
-        <v>67</v>
+      <c r="C162" t="s">
+        <v>256</v>
       </c>
       <c r="E162" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
-      <c r="D163" t="s">
-        <v>75</v>
+      <c r="C163" t="s">
+        <v>257</v>
       </c>
       <c r="E163" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
-      <c r="D166" t="s">
-        <v>114</v>
+      <c r="C166" t="s">
+        <v>259</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="D167" t="s">
-        <v>44</v>
+      <c r="C167" t="s">
+        <v>260</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
-      <c r="D168" t="s">
-        <v>73</v>
+      <c r="C168" t="s">
+        <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="D169" t="s">
-        <v>60</v>
+      <c r="C169" t="s">
+        <v>265</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
-      <c r="D171" t="s">
-        <v>73</v>
+      <c r="C171" t="s">
+        <v>271</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C175" t="s">
+        <v>44</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C176" t="s">
+        <v>77</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
       </c>
       <c r="D177" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="B178" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="C178" t="s">
+        <v>77</v>
       </c>
       <c r="D178" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B179" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D179" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E179" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B180" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C180" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D180" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E180" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B181" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D181" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="E181" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="B182" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C182" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="E182" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="B183" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C183" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D183" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="E183" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B184" t="s">
-        <v>85</v>
-      </c>
-      <c r="C184" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="E184" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C185" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D185" t="s">
+        <v>45</v>
       </c>
       <c r="E185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="D186" t="s">
+        <v>131</v>
       </c>
       <c r="E186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>77</v>
+      </c>
+      <c r="D187" t="s">
+        <v>78</v>
       </c>
       <c r="E187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="D188" t="s">
+        <v>151</v>
       </c>
       <c r="E188" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>44</v>
+      </c>
+      <c r="D189" t="s">
+        <v>45</v>
       </c>
       <c r="E189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="D190" t="s">
+        <v>45</v>
       </c>
       <c r="E190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>279</v>
+        <v>77</v>
+      </c>
+      <c r="D191" t="s">
+        <v>78</v>
       </c>
       <c r="E191" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>44</v>
+      </c>
+      <c r="D192" t="s">
+        <v>45</v>
       </c>
       <c r="E192" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>281</v>
+        <v>44</v>
+      </c>
+      <c r="D193" t="s">
+        <v>45</v>
       </c>
       <c r="E193" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="D194" t="s">
+        <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>44</v>
+      </c>
+      <c r="D195" t="s">
+        <v>45</v>
       </c>
       <c r="E195" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>44</v>
+      </c>
+      <c r="D196" t="s">
+        <v>45</v>
       </c>
       <c r="E196" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>291</v>
+        <v>44</v>
+      </c>
+      <c r="D197" t="s">
+        <v>45</v>
       </c>
       <c r="E197" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>291</v>
+        <v>44</v>
+      </c>
+      <c r="D198" t="s">
+        <v>45</v>
       </c>
       <c r="E198" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="D199" t="s">
+        <v>78</v>
       </c>
       <c r="E199" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>188</v>
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>241</v>
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>281</v>
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>281</v>
+        <v>51</v>
+      </c>
+      <c r="D209" t="s">
+        <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="D210" t="s">
+        <v>56</v>
       </c>
       <c r="E210" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>286</v>
+        <v>51</v>
+      </c>
+      <c r="D211" t="s">
+        <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>288</v>
+        <v>62</v>
+      </c>
+      <c r="D212" t="s">
+        <v>63</v>
       </c>
       <c r="E212" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" t="s">
-        <v>291</v>
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>63</v>
       </c>
       <c r="E213" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>291</v>
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
       </c>
       <c r="E214" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>71</v>
       </c>
       <c r="E215" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>286</v>
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
       </c>
       <c r="D217" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
       </c>
       <c r="D218" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
-      </c>
-      <c r="D220" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E221" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="E223" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
-      </c>
-      <c r="C224" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E224" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="E226" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="B227" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="E227" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="B228" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="E228" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
       </c>
       <c r="D229" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="B230" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="D230" t="s">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="E230" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="B231" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E231" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>154</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
       </c>
       <c r="D232" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
       </c>
       <c r="D233" t="s">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="E234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" t="s">
-        <v>298</v>
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>184</v>
       </c>
       <c r="E235" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>51</v>
       </c>
       <c r="D237" t="s">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>51</v>
       </c>
       <c r="D238" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="E238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>210</v>
       </c>
       <c r="D239" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="E240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="E241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" t="s">
-        <v>305</v>
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>40</v>
       </c>
       <c r="E242" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>237</v>
       </c>
       <c r="E243" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="E244" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>62</v>
       </c>
       <c r="D245" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="E245" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>51</v>
       </c>
       <c r="D246" t="s">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="E246" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>210</v>
       </c>
       <c r="D247" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>210</v>
       </c>
       <c r="D248" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="E248" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>210</v>
       </c>
       <c r="D249" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" t="s">
-        <v>313</v>
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
       </c>
       <c r="E250" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>51</v>
       </c>
       <c r="D251" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="E251" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
       </c>
       <c r="D252" t="s">
-        <v>315</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>210</v>
       </c>
       <c r="D253" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="E253" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" t="s">
-        <v>317</v>
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>275</v>
       </c>
       <c r="E254" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" t="s">
-        <v>318</v>
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>277</v>
       </c>
       <c r="E255" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" t="s">
-        <v>319</v>
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>277</v>
       </c>
       <c r="E256" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" t="s">
-        <v>320</v>
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>69</v>
       </c>
       <c r="E257" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" t="s">
-        <v>321</v>
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>282</v>
       </c>
       <c r="E258" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>284</v>
+      </c>
+      <c r="E259" t="s">
         <v>322</v>
-      </c>
-      <c r="B259" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" t="s">
-        <v>322</v>
-      </c>
-      <c r="E259" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
       </c>
       <c r="D260" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>9</v>
+        <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="E261" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="E262" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E263" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="E264" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
-      </c>
-      <c r="C265" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D266" t="s">
+        <v>17</v>
       </c>
       <c r="E266" t="s">
         <v>325</v>
@@ -6049,13 +5935,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>3</v>
       </c>
       <c r="E267" t="s">
         <v>325</v>
@@ -6063,13 +5952,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D268" t="s">
+        <v>3</v>
       </c>
       <c r="E268" t="s">
         <v>325</v>
@@ -6077,13 +5969,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>3</v>
       </c>
       <c r="E269" t="s">
         <v>325</v>
@@ -6091,13 +5986,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="D270" t="s">
+        <v>3</v>
       </c>
       <c r="E270" t="s">
         <v>325</v>
@@ -6105,13 +6003,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>3</v>
       </c>
       <c r="E271" t="s">
         <v>325</v>
@@ -6119,13 +6020,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
       </c>
       <c r="E272" t="s">
         <v>325</v>
@@ -6133,13 +6037,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="D273" t="s">
+        <v>52</v>
       </c>
       <c r="E273" t="s">
         <v>325</v>
@@ -6147,13 +6054,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="D274" t="s">
+        <v>56</v>
       </c>
       <c r="E274" t="s">
         <v>325</v>
@@ -6161,13 +6071,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D275" t="s">
+        <v>52</v>
       </c>
       <c r="E275" t="s">
         <v>325</v>
@@ -6175,13 +6088,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="D276" t="s">
+        <v>63</v>
       </c>
       <c r="E276" t="s">
         <v>325</v>
@@ -6189,27 +6105,30 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
-      </c>
-      <c r="C277" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>63</v>
       </c>
       <c r="E277" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
       </c>
       <c r="E278" t="s">
         <v>325</v>
@@ -6217,27 +6136,30 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
-      </c>
-      <c r="C279" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>71</v>
       </c>
       <c r="E279" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>3</v>
       </c>
       <c r="E280" t="s">
         <v>325</v>
@@ -6245,13 +6167,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>3</v>
       </c>
       <c r="E281" t="s">
         <v>325</v>
@@ -6259,27 +6184,30 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
-      </c>
-      <c r="C282" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
       </c>
       <c r="E282" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>3</v>
       </c>
       <c r="E283" t="s">
         <v>325</v>
@@ -6287,41 +6215,44 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
-      </c>
-      <c r="C284" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E285" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="D286" t="s">
+        <v>52</v>
       </c>
       <c r="E286" t="s">
         <v>325</v>
@@ -6329,41 +6260,44 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
-      </c>
-      <c r="C287" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>110</v>
       </c>
       <c r="E287" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E288" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>3</v>
       </c>
       <c r="E289" t="s">
         <v>325</v>
@@ -6371,13 +6305,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
       </c>
       <c r="E290" t="s">
         <v>325</v>
@@ -6385,27 +6322,30 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
-      </c>
-      <c r="C291" t="s">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>40</v>
       </c>
       <c r="E291" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>3</v>
       </c>
       <c r="E292" t="s">
         <v>325</v>
@@ -6413,13 +6353,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>3</v>
       </c>
       <c r="E293" t="s">
         <v>325</v>
@@ -6427,97 +6370,100 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
-      </c>
-      <c r="C294" t="s">
-        <v>126</v>
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
       </c>
       <c r="E294" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
-      </c>
-      <c r="C295" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>56</v>
       </c>
       <c r="E295" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="E296" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
-      </c>
-      <c r="C297" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
-      </c>
-      <c r="C298" t="s">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
       </c>
       <c r="E298" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
-      </c>
-      <c r="C299" t="s">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>40</v>
       </c>
       <c r="E299" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>162</v>
+        <v>51</v>
+      </c>
+      <c r="D300" t="s">
+        <v>3</v>
       </c>
       <c r="E300" t="s">
         <v>325</v>
@@ -6525,13 +6471,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="D301" t="s">
+        <v>52</v>
       </c>
       <c r="E301" t="s">
         <v>325</v>
@@ -6539,41 +6488,44 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
-      </c>
-      <c r="C302" t="s">
-        <v>164</v>
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>40</v>
       </c>
       <c r="E302" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
-      </c>
-      <c r="C303" t="s">
-        <v>165</v>
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>202</v>
       </c>
       <c r="E303" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>166</v>
+        <v>210</v>
+      </c>
+      <c r="D304" t="s">
+        <v>3</v>
       </c>
       <c r="E304" t="s">
         <v>325</v>
@@ -6581,55 +6533,58 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="E305" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="E306" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
-      </c>
-      <c r="C307" t="s">
-        <v>171</v>
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>237</v>
       </c>
       <c r="E307" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>172</v>
+        <v>62</v>
+      </c>
+      <c r="D308" t="s">
+        <v>63</v>
       </c>
       <c r="E308" t="s">
         <v>325</v>
@@ -6637,13 +6592,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>173</v>
+        <v>51</v>
+      </c>
+      <c r="D309" t="s">
+        <v>52</v>
       </c>
       <c r="E309" t="s">
         <v>325</v>
@@ -6651,13 +6609,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C310" t="s">
-        <v>174</v>
+        <v>210</v>
+      </c>
+      <c r="D310" t="s">
+        <v>248</v>
       </c>
       <c r="E310" t="s">
         <v>325</v>
@@ -6665,13 +6626,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C311" t="s">
-        <v>187</v>
+        <v>210</v>
+      </c>
+      <c r="D311" t="s">
+        <v>248</v>
       </c>
       <c r="E311" t="s">
         <v>325</v>
@@ -6679,13 +6643,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>192</v>
+        <v>210</v>
+      </c>
+      <c r="D312" t="s">
+        <v>248</v>
       </c>
       <c r="E312" t="s">
         <v>325</v>
@@ -6693,27 +6660,30 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C313" t="s">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="E313" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>203</v>
+        <v>51</v>
+      </c>
+      <c r="D314" t="s">
+        <v>52</v>
       </c>
       <c r="E314" t="s">
         <v>325</v>
@@ -6721,27 +6691,30 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
-      </c>
-      <c r="C315" t="s">
-        <v>216</v>
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="D316" t="s">
+        <v>248</v>
       </c>
       <c r="E316" t="s">
         <v>325</v>
@@ -6749,97 +6722,100 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C317" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="E317" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C318" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="E318" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C319" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E319" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="E320" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="E321" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C322" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="E322" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>239</v>
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>3</v>
       </c>
       <c r="E323" t="s">
         <v>325</v>
@@ -6847,192 +6823,213 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="E324" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="E325" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="E326" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E327" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C328" t="s">
-        <v>258</v>
+        <v>71</v>
+      </c>
+      <c r="D328" t="s">
+        <v>80</v>
       </c>
       <c r="E328" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C329" t="s">
-        <v>259</v>
+        <v>71</v>
+      </c>
+      <c r="D329" t="s">
+        <v>150</v>
       </c>
       <c r="E329" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C330" t="s">
-        <v>260</v>
+        <v>71</v>
+      </c>
+      <c r="D330" t="s">
+        <v>171</v>
       </c>
       <c r="E330" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C331" t="s">
-        <v>261</v>
+        <v>71</v>
+      </c>
+      <c r="D331" t="s">
+        <v>184</v>
       </c>
       <c r="E331" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
-      </c>
-      <c r="C332" t="s">
-        <v>263</v>
+        <v>81</v>
+      </c>
+      <c r="D332" t="s">
+        <v>71</v>
       </c>
       <c r="E332" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C333" t="s">
-        <v>264</v>
+        <v>71</v>
+      </c>
+      <c r="D333" t="s">
+        <v>222</v>
       </c>
       <c r="E333" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C334" t="s">
-        <v>268</v>
+        <v>71</v>
+      </c>
+      <c r="D334" t="s">
+        <v>234</v>
       </c>
       <c r="E334" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
-      </c>
-      <c r="C335" t="s">
-        <v>269</v>
+        <v>81</v>
+      </c>
+      <c r="D335" t="s">
+        <v>71</v>
       </c>
       <c r="E335" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C336" t="s">
-        <v>275</v>
+        <v>90</v>
+      </c>
+      <c r="D336" t="s">
+        <v>92</v>
       </c>
       <c r="E336" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E336">
+  <autoFilter ref="A1:E336" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E336">
-      <sortCondition ref="E2:E336"/>
       <sortCondition ref="B2:B336"/>
       <sortCondition ref="A2:A336"/>
+      <sortCondition ref="E2:E336"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jul 2019 to Aug 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jul 2019 to Aug 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B977183A-C68B-4D7C-BC02-046E2F2FCFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B869E9D6-B254-4178-8FFC-48C11B23012D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="331">
   <si>
     <t>Comment</t>
   </si>
@@ -985,27 +985,6 @@
     <t>Zee Mundo</t>
   </si>
   <si>
-    <t>New Network added to database in Aug 2019</t>
-  </si>
-  <si>
-    <t>Old Network removed from database in Aug 2019</t>
-  </si>
-  <si>
-    <t>Network removed from Service (base or Add-on Package) in Aug 2019</t>
-  </si>
-  <si>
-    <t>Network added to Service (base or Add-On Package) in Aug 2019</t>
-  </si>
-  <si>
-    <t>New Alias added for Network name in Aug 2019</t>
-  </si>
-  <si>
-    <t>Name of Add-On Package changed in Aug 2019</t>
-  </si>
-  <si>
-    <t>Network moved within Service from Base to Add-On Package</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -1013,6 +992,30 @@
   </si>
   <si>
     <t>New Value</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Aug 2019</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1881,13 +1884,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1904,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1918,7 +1921,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1932,7 +1935,7 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1946,7 +1949,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1960,7 +1963,7 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1974,7 +1977,7 @@
         <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1991,7 +1994,7 @@
         <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -2008,7 +2011,7 @@
         <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -2022,7 +2025,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -2036,7 +2039,7 @@
         <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2050,7 +2053,7 @@
         <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -2064,7 +2067,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -2078,7 +2081,7 @@
         <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -2095,7 +2098,7 @@
         <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2109,7 +2112,7 @@
         <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -2126,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -2143,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -2160,7 +2163,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -2177,7 +2180,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -2194,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -2211,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -2228,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -2245,7 +2248,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -2262,7 +2265,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -2279,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -2296,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -2313,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -2330,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -2347,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -2364,7 +2367,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -2381,7 +2384,7 @@
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -2398,7 +2401,7 @@
         <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -2415,7 +2418,7 @@
         <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -2432,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -2449,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -2466,7 +2469,7 @@
         <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -2483,7 +2486,7 @@
         <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -2500,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -2517,7 +2520,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -2534,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -2551,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -2568,7 +2571,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -2585,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -2602,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -2619,7 +2622,7 @@
         <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -2636,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -2653,7 +2656,7 @@
         <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -2670,7 +2673,7 @@
         <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2687,7 +2690,7 @@
         <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2704,7 +2707,7 @@
         <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2721,7 +2724,7 @@
         <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2738,7 +2741,7 @@
         <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2755,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2772,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2789,7 +2792,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2806,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2823,7 +2826,7 @@
         <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2840,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2857,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2874,7 +2877,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2891,7 +2894,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2908,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2925,7 +2928,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2942,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2956,7 +2959,7 @@
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2970,7 +2973,7 @@
         <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2987,7 +2990,7 @@
         <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -3004,7 +3007,7 @@
         <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -3018,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -3032,7 +3035,7 @@
         <v>291</v>
       </c>
       <c r="E71" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -3046,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -3060,7 +3063,7 @@
         <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -3074,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3088,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -3102,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -3116,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -3130,7 +3133,7 @@
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -3144,7 +3147,7 @@
         <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -3158,7 +3161,7 @@
         <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -3172,7 +3175,7 @@
         <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -3186,7 +3189,7 @@
         <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -3200,7 +3203,7 @@
         <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -3214,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -3228,7 +3231,7 @@
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -3242,7 +3245,7 @@
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -3256,7 +3259,7 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -3270,7 +3273,7 @@
         <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -3284,7 +3287,7 @@
         <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -3298,7 +3301,7 @@
         <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -3312,7 +3315,7 @@
         <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -3326,7 +3329,7 @@
         <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -3340,7 +3343,7 @@
         <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -3354,7 +3357,7 @@
         <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -3368,7 +3371,7 @@
         <v>64</v>
       </c>
       <c r="E95" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -3382,7 +3385,7 @@
         <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -3396,7 +3399,7 @@
         <v>73</v>
       </c>
       <c r="E97" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -3410,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -3424,7 +3427,7 @@
         <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -3438,7 +3441,7 @@
         <v>89</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -3452,7 +3455,7 @@
         <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -3466,7 +3469,7 @@
         <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -3480,7 +3483,7 @@
         <v>93</v>
       </c>
       <c r="E103" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -3494,7 +3497,7 @@
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -3508,7 +3511,7 @@
         <v>299</v>
       </c>
       <c r="E105" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -3522,7 +3525,7 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -3536,7 +3539,7 @@
         <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -3550,7 +3553,7 @@
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -3564,7 +3567,7 @@
         <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -3578,7 +3581,7 @@
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
@@ -3592,7 +3595,7 @@
         <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -3606,7 +3609,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -3620,7 +3623,7 @@
         <v>121</v>
       </c>
       <c r="E113" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -3634,7 +3637,7 @@
         <v>122</v>
       </c>
       <c r="E114" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -3648,7 +3651,7 @@
         <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -3662,7 +3665,7 @@
         <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -3676,7 +3679,7 @@
         <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3690,7 +3693,7 @@
         <v>153</v>
       </c>
       <c r="E118" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>302</v>
       </c>
       <c r="E119" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -3718,7 +3721,7 @@
         <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -3732,7 +3735,7 @@
         <v>303</v>
       </c>
       <c r="E121" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -3746,7 +3749,7 @@
         <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -3760,7 +3763,7 @@
         <v>159</v>
       </c>
       <c r="E123" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -3774,7 +3777,7 @@
         <v>160</v>
       </c>
       <c r="E124" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -3788,7 +3791,7 @@
         <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -3802,7 +3805,7 @@
         <v>162</v>
       </c>
       <c r="E126" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3816,7 +3819,7 @@
         <v>165</v>
       </c>
       <c r="E127" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -3830,7 +3833,7 @@
         <v>166</v>
       </c>
       <c r="E128" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -3844,7 +3847,7 @@
         <v>167</v>
       </c>
       <c r="E129" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -3858,7 +3861,7 @@
         <v>168</v>
       </c>
       <c r="E130" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -3872,7 +3875,7 @@
         <v>304</v>
       </c>
       <c r="E131" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
@@ -3886,7 +3889,7 @@
         <v>305</v>
       </c>
       <c r="E132" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
@@ -3900,7 +3903,7 @@
         <v>169</v>
       </c>
       <c r="E133" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -3914,7 +3917,7 @@
         <v>170</v>
       </c>
       <c r="E134" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -3928,7 +3931,7 @@
         <v>306</v>
       </c>
       <c r="E135" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -3942,7 +3945,7 @@
         <v>183</v>
       </c>
       <c r="E136" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -3956,7 +3959,7 @@
         <v>188</v>
       </c>
       <c r="E137" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -3970,7 +3973,7 @@
         <v>194</v>
       </c>
       <c r="E138" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3984,7 +3987,7 @@
         <v>307</v>
       </c>
       <c r="E139" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -3998,7 +4001,7 @@
         <v>199</v>
       </c>
       <c r="E140" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -4012,7 +4015,7 @@
         <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -4026,7 +4029,7 @@
         <v>308</v>
       </c>
       <c r="E142" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -4040,7 +4043,7 @@
         <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -4054,7 +4057,7 @@
         <v>214</v>
       </c>
       <c r="E144" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -4068,7 +4071,7 @@
         <v>309</v>
       </c>
       <c r="E145" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -4082,7 +4085,7 @@
         <v>217</v>
       </c>
       <c r="E146" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -4096,7 +4099,7 @@
         <v>219</v>
       </c>
       <c r="E147" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -4110,7 +4113,7 @@
         <v>223</v>
       </c>
       <c r="E148" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -4124,7 +4127,7 @@
         <v>225</v>
       </c>
       <c r="E149" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -4138,7 +4141,7 @@
         <v>310</v>
       </c>
       <c r="E150" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
@@ -4152,7 +4155,7 @@
         <v>227</v>
       </c>
       <c r="E151" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -4166,7 +4169,7 @@
         <v>235</v>
       </c>
       <c r="E152" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -4180,7 +4183,7 @@
         <v>239</v>
       </c>
       <c r="E153" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -4194,7 +4197,7 @@
         <v>311</v>
       </c>
       <c r="E154" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -4208,7 +4211,7 @@
         <v>240</v>
       </c>
       <c r="E155" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -4222,7 +4225,7 @@
         <v>246</v>
       </c>
       <c r="E156" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -4236,7 +4239,7 @@
         <v>312</v>
       </c>
       <c r="E157" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -4250,7 +4253,7 @@
         <v>313</v>
       </c>
       <c r="E158" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -4264,7 +4267,7 @@
         <v>253</v>
       </c>
       <c r="E159" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -4278,7 +4281,7 @@
         <v>254</v>
       </c>
       <c r="E160" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -4292,7 +4295,7 @@
         <v>255</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -4306,7 +4309,7 @@
         <v>256</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
@@ -4320,7 +4323,7 @@
         <v>257</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
@@ -4334,7 +4337,7 @@
         <v>314</v>
       </c>
       <c r="E164" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
@@ -4348,7 +4351,7 @@
         <v>315</v>
       </c>
       <c r="E165" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -4362,7 +4365,7 @@
         <v>259</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -4376,7 +4379,7 @@
         <v>260</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
@@ -4390,7 +4393,7 @@
         <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -4404,7 +4407,7 @@
         <v>265</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -4418,7 +4421,7 @@
         <v>316</v>
       </c>
       <c r="E170" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
@@ -4432,7 +4435,7 @@
         <v>271</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -4446,7 +4449,7 @@
         <v>317</v>
       </c>
       <c r="E172" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -4460,7 +4463,7 @@
         <v>318</v>
       </c>
       <c r="E173" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -4474,7 +4477,7 @@
         <v>319</v>
       </c>
       <c r="E174" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
@@ -4491,7 +4494,7 @@
         <v>45</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -4508,7 +4511,7 @@
         <v>78</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
@@ -4525,7 +4528,7 @@
         <v>78</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -4542,7 +4545,7 @@
         <v>78</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -4559,7 +4562,7 @@
         <v>78</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -4576,7 +4579,7 @@
         <v>45</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -4593,7 +4596,7 @@
         <v>112</v>
       </c>
       <c r="E181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
@@ -4610,7 +4613,7 @@
         <v>45</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
@@ -4627,7 +4630,7 @@
         <v>45</v>
       </c>
       <c r="E183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -4641,7 +4644,7 @@
         <v>45</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
@@ -4658,7 +4661,7 @@
         <v>45</v>
       </c>
       <c r="E185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
@@ -4675,7 +4678,7 @@
         <v>131</v>
       </c>
       <c r="E186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
@@ -4692,7 +4695,7 @@
         <v>78</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
@@ -4709,7 +4712,7 @@
         <v>151</v>
       </c>
       <c r="E188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
@@ -4726,7 +4729,7 @@
         <v>45</v>
       </c>
       <c r="E189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
@@ -4743,7 +4746,7 @@
         <v>45</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
@@ -4760,7 +4763,7 @@
         <v>78</v>
       </c>
       <c r="E191" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -4777,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="E192" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.4">
@@ -4794,7 +4797,7 @@
         <v>45</v>
       </c>
       <c r="E193" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
@@ -4808,7 +4811,7 @@
         <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
@@ -4825,7 +4828,7 @@
         <v>45</v>
       </c>
       <c r="E195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
@@ -4842,7 +4845,7 @@
         <v>45</v>
       </c>
       <c r="E196" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.4">
@@ -4859,7 +4862,7 @@
         <v>45</v>
       </c>
       <c r="E197" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
@@ -4876,7 +4879,7 @@
         <v>45</v>
       </c>
       <c r="E198" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
@@ -4893,7 +4896,7 @@
         <v>78</v>
       </c>
       <c r="E199" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
@@ -4907,7 +4910,7 @@
         <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.4">
@@ -4921,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
@@ -4938,7 +4941,7 @@
         <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
@@ -4955,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
@@ -4972,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
@@ -4989,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.4">
@@ -5006,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.4">
@@ -5023,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
@@ -5040,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
@@ -5057,7 +5060,7 @@
         <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
@@ -5074,7 +5077,7 @@
         <v>56</v>
       </c>
       <c r="E210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
@@ -5091,7 +5094,7 @@
         <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
@@ -5108,7 +5111,7 @@
         <v>63</v>
       </c>
       <c r="E212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
@@ -5122,7 +5125,7 @@
         <v>63</v>
       </c>
       <c r="E213" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.4">
@@ -5139,7 +5142,7 @@
         <v>69</v>
       </c>
       <c r="E214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
@@ -5153,7 +5156,7 @@
         <v>71</v>
       </c>
       <c r="E215" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
@@ -5170,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
@@ -5187,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
@@ -5204,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
@@ -5218,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
@@ -5232,7 +5235,7 @@
         <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
@@ -5246,7 +5249,7 @@
         <v>34</v>
       </c>
       <c r="E221" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
@@ -5260,7 +5263,7 @@
         <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
@@ -5277,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="E223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
@@ -5291,7 +5294,7 @@
         <v>110</v>
       </c>
       <c r="E224" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.4">
@@ -5305,7 +5308,7 @@
         <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.4">
@@ -5319,7 +5322,7 @@
         <v>40</v>
       </c>
       <c r="E226" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.4">
@@ -5333,7 +5336,7 @@
         <v>40</v>
       </c>
       <c r="E227" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.4">
@@ -5347,7 +5350,7 @@
         <v>40</v>
       </c>
       <c r="E228" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.4">
@@ -5364,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.4">
@@ -5381,7 +5384,7 @@
         <v>69</v>
       </c>
       <c r="E230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.4">
@@ -5395,7 +5398,7 @@
         <v>69</v>
       </c>
       <c r="E231" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
@@ -5412,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.4">
@@ -5429,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.4">
@@ -5443,7 +5446,7 @@
         <v>56</v>
       </c>
       <c r="E234" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.4">
@@ -5457,7 +5460,7 @@
         <v>184</v>
       </c>
       <c r="E235" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
@@ -5471,7 +5474,7 @@
         <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.4">
@@ -5488,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.4">
@@ -5505,7 +5508,7 @@
         <v>52</v>
       </c>
       <c r="E238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.4">
@@ -5522,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
@@ -5536,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="E240" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.4">
@@ -5550,7 +5553,7 @@
         <v>40</v>
       </c>
       <c r="E241" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.4">
@@ -5564,7 +5567,7 @@
         <v>40</v>
       </c>
       <c r="E242" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.4">
@@ -5578,7 +5581,7 @@
         <v>237</v>
       </c>
       <c r="E243" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
@@ -5592,7 +5595,7 @@
         <v>237</v>
       </c>
       <c r="E244" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
@@ -5609,7 +5612,7 @@
         <v>63</v>
       </c>
       <c r="E245" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -5626,7 +5629,7 @@
         <v>52</v>
       </c>
       <c r="E246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
@@ -5643,7 +5646,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -5660,7 +5663,7 @@
         <v>248</v>
       </c>
       <c r="E248" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -5677,7 +5680,7 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -5691,7 +5694,7 @@
         <v>16</v>
       </c>
       <c r="E250" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -5708,7 +5711,7 @@
         <v>52</v>
       </c>
       <c r="E251" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -5725,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -5742,7 +5745,7 @@
         <v>248</v>
       </c>
       <c r="E253" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -5756,7 +5759,7 @@
         <v>275</v>
       </c>
       <c r="E254" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -5770,7 +5773,7 @@
         <v>277</v>
       </c>
       <c r="E255" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
@@ -5784,7 +5787,7 @@
         <v>277</v>
       </c>
       <c r="E256" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -5798,7 +5801,7 @@
         <v>69</v>
       </c>
       <c r="E257" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -5812,7 +5815,7 @@
         <v>282</v>
       </c>
       <c r="E258" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.4">
@@ -5826,7 +5829,7 @@
         <v>284</v>
       </c>
       <c r="E259" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.4">
@@ -5843,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.4">
@@ -5857,7 +5860,7 @@
         <v>287</v>
       </c>
       <c r="E261" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.4">
@@ -5871,7 +5874,7 @@
         <v>287</v>
       </c>
       <c r="E262" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.4">
@@ -5885,7 +5888,7 @@
         <v>68</v>
       </c>
       <c r="E263" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.4">
@@ -5899,7 +5902,7 @@
         <v>282</v>
       </c>
       <c r="E264" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.4">
@@ -5913,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.4">
@@ -5930,7 +5933,7 @@
         <v>17</v>
       </c>
       <c r="E266" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.4">
@@ -5947,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.4">
@@ -5964,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.4">
@@ -5981,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.4">
@@ -5998,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.4">
@@ -6015,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.4">
@@ -6032,7 +6035,7 @@
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.4">
@@ -6049,7 +6052,7 @@
         <v>52</v>
       </c>
       <c r="E273" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.4">
@@ -6066,7 +6069,7 @@
         <v>56</v>
       </c>
       <c r="E274" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.4">
@@ -6083,7 +6086,7 @@
         <v>52</v>
       </c>
       <c r="E275" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
@@ -6100,7 +6103,7 @@
         <v>63</v>
       </c>
       <c r="E276" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
@@ -6114,7 +6117,7 @@
         <v>63</v>
       </c>
       <c r="E277" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
@@ -6131,7 +6134,7 @@
         <v>69</v>
       </c>
       <c r="E278" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
@@ -6145,7 +6148,7 @@
         <v>71</v>
       </c>
       <c r="E279" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
@@ -6162,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
@@ -6179,7 +6182,7 @@
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
@@ -6193,7 +6196,7 @@
         <v>69</v>
       </c>
       <c r="E282" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.4">
@@ -6210,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.4">
@@ -6224,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
@@ -6238,7 +6241,7 @@
         <v>28</v>
       </c>
       <c r="E285" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
@@ -6255,7 +6258,7 @@
         <v>52</v>
       </c>
       <c r="E286" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.4">
@@ -6269,7 +6272,7 @@
         <v>110</v>
       </c>
       <c r="E287" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.4">
@@ -6283,7 +6286,7 @@
         <v>28</v>
       </c>
       <c r="E288" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
@@ -6300,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
@@ -6317,7 +6320,7 @@
         <v>69</v>
       </c>
       <c r="E290" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
@@ -6331,7 +6334,7 @@
         <v>40</v>
       </c>
       <c r="E291" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.4">
@@ -6348,7 +6351,7 @@
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.4">
@@ -6365,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
@@ -6379,7 +6382,7 @@
         <v>69</v>
       </c>
       <c r="E294" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.4">
@@ -6393,7 +6396,7 @@
         <v>56</v>
       </c>
       <c r="E295" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.4">
@@ -6407,7 +6410,7 @@
         <v>184</v>
       </c>
       <c r="E296" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.4">
@@ -6421,7 +6424,7 @@
         <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.4">
@@ -6435,7 +6438,7 @@
         <v>69</v>
       </c>
       <c r="E298" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
@@ -6449,7 +6452,7 @@
         <v>40</v>
       </c>
       <c r="E299" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.4">
@@ -6466,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
@@ -6483,7 +6486,7 @@
         <v>52</v>
       </c>
       <c r="E301" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
@@ -6497,7 +6500,7 @@
         <v>40</v>
       </c>
       <c r="E302" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
@@ -6511,7 +6514,7 @@
         <v>202</v>
       </c>
       <c r="E303" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
@@ -6528,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.4">
@@ -6542,7 +6545,7 @@
         <v>40</v>
       </c>
       <c r="E305" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
@@ -6556,7 +6559,7 @@
         <v>237</v>
       </c>
       <c r="E306" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.4">
@@ -6570,7 +6573,7 @@
         <v>237</v>
       </c>
       <c r="E307" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.4">
@@ -6587,7 +6590,7 @@
         <v>63</v>
       </c>
       <c r="E308" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.4">
@@ -6604,7 +6607,7 @@
         <v>52</v>
       </c>
       <c r="E309" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.4">
@@ -6621,7 +6624,7 @@
         <v>248</v>
       </c>
       <c r="E310" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.4">
@@ -6638,7 +6641,7 @@
         <v>248</v>
       </c>
       <c r="E311" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.4">
@@ -6655,7 +6658,7 @@
         <v>248</v>
       </c>
       <c r="E312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.4">
@@ -6669,7 +6672,7 @@
         <v>16</v>
       </c>
       <c r="E313" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.4">
@@ -6686,7 +6689,7 @@
         <v>52</v>
       </c>
       <c r="E314" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.4">
@@ -6700,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.4">
@@ -6717,7 +6720,7 @@
         <v>248</v>
       </c>
       <c r="E316" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.4">
@@ -6731,7 +6734,7 @@
         <v>275</v>
       </c>
       <c r="E317" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.4">
@@ -6745,7 +6748,7 @@
         <v>277</v>
       </c>
       <c r="E318" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
@@ -6759,7 +6762,7 @@
         <v>277</v>
       </c>
       <c r="E319" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.4">
@@ -6773,7 +6776,7 @@
         <v>69</v>
       </c>
       <c r="E320" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.4">
@@ -6787,7 +6790,7 @@
         <v>282</v>
       </c>
       <c r="E321" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.4">
@@ -6801,7 +6804,7 @@
         <v>284</v>
       </c>
       <c r="E322" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.4">
@@ -6818,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.4">
@@ -6832,7 +6835,7 @@
         <v>287</v>
       </c>
       <c r="E324" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.4">
@@ -6846,7 +6849,7 @@
         <v>287</v>
       </c>
       <c r="E325" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.4">
@@ -6860,7 +6863,7 @@
         <v>68</v>
       </c>
       <c r="E326" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.4">
@@ -6874,7 +6877,7 @@
         <v>282</v>
       </c>
       <c r="E327" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.4">
@@ -6891,7 +6894,7 @@
         <v>80</v>
       </c>
       <c r="E328" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.4">
@@ -6908,7 +6911,7 @@
         <v>150</v>
       </c>
       <c r="E329" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.4">
@@ -6925,7 +6928,7 @@
         <v>171</v>
       </c>
       <c r="E330" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.4">
@@ -6942,7 +6945,7 @@
         <v>184</v>
       </c>
       <c r="E331" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.4">
@@ -6956,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="E332" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.4">
@@ -6973,7 +6976,7 @@
         <v>222</v>
       </c>
       <c r="E333" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.4">
@@ -6990,7 +6993,7 @@
         <v>234</v>
       </c>
       <c r="E334" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.4">
@@ -7004,7 +7007,7 @@
         <v>71</v>
       </c>
       <c r="E335" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.4">
@@ -7021,11 +7024,11 @@
         <v>92</v>
       </c>
       <c r="E336" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E336" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:E336" xr:uid="{8D7060CD-52B0-4E82-A02F-13EEEC0B7B8E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E336">
       <sortCondition ref="B2:B336"/>
       <sortCondition ref="A2:A336"/>
